--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-iam-user-role.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-iam-user-role.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\HZero\code\hzero-resource\init-data\saas\hzero-platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25071\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B434EC6-E22D-4B59-83B9-A5242D7E97FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C741DD9-3564-4258-BF22-D62FB1AE1723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,12 @@
     <definedName name="wqewqe" localSheetId="4">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="241">
   <si>
     <r>
       <rPr>
@@ -2297,336 +2295,337 @@
     <t>游客(租户层)</t>
   </si>
   <si>
+    <t>role/organization/default/guest</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/organization/default/guest</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/organization/default/guest</t>
+  </si>
+  <si>
+    <t>iam_role-10</t>
+  </si>
+  <si>
+    <t>租户管理员模板</t>
+  </si>
+  <si>
+    <t>role/organization/default/template/administrator</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/organization/default/template/administrator</t>
+  </si>
+  <si>
+    <t>iam_role-11</t>
+  </si>
+  <si>
+    <t>组织管理员</t>
+  </si>
+  <si>
+    <t>role/project/default/administrator</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>HZERO.P..role/project/default/administrator</t>
+  </si>
+  <si>
+    <t>iam_role-12</t>
+  </si>
+  <si>
+    <t>平台管理员</t>
+  </si>
+  <si>
+    <t>Site Administrator</t>
+  </si>
+  <si>
+    <t>role/site/default/administrator</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/site/default/administrator</t>
+  </si>
+  <si>
+    <t>iam_role-13</t>
+  </si>
+  <si>
+    <t>游客(平台层)</t>
+  </si>
+  <si>
+    <t>Site Guest</t>
+  </si>
+  <si>
+    <t>role/site/default/guest</t>
+  </si>
+  <si>
+    <t>role/site/default/administrator|HZERO.T.role/site/default/guest</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/site/default/guest</t>
+  </si>
+  <si>
+    <t>用户角色关系</t>
+  </si>
+  <si>
+    <t>iam_member_role</t>
+  </si>
+  <si>
+    <t>#role_id</t>
+  </si>
+  <si>
+    <t>#member_id</t>
+  </si>
+  <si>
+    <t>#member_type</t>
+  </si>
+  <si>
+    <t>source_id</t>
+  </si>
+  <si>
+    <t>source_type</t>
+  </si>
+  <si>
+    <t>h_assign_level</t>
+  </si>
+  <si>
+    <t>h_assign_level_value</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>2020-04-16</t>
+  </si>
+  <si>
+    <t>单据权限维度</t>
+  </si>
+  <si>
+    <t>hiam_doc_type_dimension</t>
+  </si>
+  <si>
+    <t>*dimension_id</t>
+  </si>
+  <si>
+    <t>#dimension_code</t>
+  </si>
+  <si>
+    <t>dimension_name</t>
+  </si>
+  <si>
+    <t>dimension_type</t>
+  </si>
+  <si>
+    <t>value_source_type</t>
+  </si>
+  <si>
+    <t>value_source</t>
+  </si>
+  <si>
+    <t>enabled_flag</t>
+  </si>
+  <si>
+    <t>order_seq</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <t>COMPANY</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>BIZ</t>
+  </si>
+  <si>
+    <t>LOCAL</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>PURORG</t>
+  </si>
+  <si>
+    <t>采购组织</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>PURAGENT</t>
+  </si>
+  <si>
+    <t>采购员</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>LOV</t>
+  </si>
+  <si>
+    <t>值集</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>LOV_VIEW</t>
+  </si>
+  <si>
+    <t>值集视图</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>DATASOURCE</t>
+  </si>
+  <si>
+    <t>数据源</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>DATA_GROUP</t>
+  </si>
+  <si>
+    <t>数据组</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>CREATED_BY</t>
+  </si>
+  <si>
+    <t>创建人</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>iam_role-14</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>Organization Guest</t>
-  </si>
-  <si>
-    <t>role/organization/default/guest</t>
-  </si>
-  <si>
-    <t>role/organization/default/administrator|HZERO.T.role/organization/default/guest</t>
-  </si>
-  <si>
-    <t>HZERO.T.role/organization/default/guest</t>
-  </si>
-  <si>
-    <t>iam_role-10</t>
-  </si>
-  <si>
-    <t>租户管理员模板</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>租户成员模板</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Tenant admin template</t>
-  </si>
-  <si>
-    <t>role/organization/default/template/administrator</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>role/organization/default/administrator|HZERO.T.role/organization/default/template/administrator</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Organization Member template</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/organization/default/template/member</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>role/organization/default/administrator|HZERO.T.role/organization/default/template/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>member</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>HZERO.T.role/organization/default/template/administrator</t>
-  </si>
-  <si>
-    <t>iam_role-11</t>
-  </si>
-  <si>
-    <t>组织管理员</t>
-  </si>
-  <si>
-    <t>role/project/default/administrator</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>HZERO.P..role/project/default/administrator</t>
-  </si>
-  <si>
-    <t>iam_role-12</t>
-  </si>
-  <si>
-    <t>平台管理员</t>
-  </si>
-  <si>
-    <t>Site Administrator</t>
-  </si>
-  <si>
-    <t>role/site/default/administrator</t>
-  </si>
-  <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>HZERO.T.role/site/default/administrator</t>
-  </si>
-  <si>
-    <t>iam_role-13</t>
-  </si>
-  <si>
-    <t>游客(平台层)</t>
-  </si>
-  <si>
-    <t>Site Guest</t>
-  </si>
-  <si>
-    <t>role/site/default/guest</t>
-  </si>
-  <si>
-    <t>role/site/default/administrator|HZERO.T.role/site/default/guest</t>
-  </si>
-  <si>
-    <t>HZERO.T.role/site/default/guest</t>
-  </si>
-  <si>
-    <t>用户角色关系</t>
-  </si>
-  <si>
-    <t>iam_member_role</t>
-  </si>
-  <si>
-    <t>#role_id</t>
-  </si>
-  <si>
-    <t>#member_id</t>
-  </si>
-  <si>
-    <t>#member_type</t>
-  </si>
-  <si>
-    <t>source_id</t>
-  </si>
-  <si>
-    <t>source_type</t>
-  </si>
-  <si>
-    <t>h_assign_level</t>
-  </si>
-  <si>
-    <t>h_assign_level_value</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>2020-04-16</t>
-  </si>
-  <si>
-    <t>单据权限维度</t>
-  </si>
-  <si>
-    <t>hiam_doc_type_dimension</t>
-  </si>
-  <si>
-    <t>*dimension_id</t>
-  </si>
-  <si>
-    <t>#dimension_code</t>
-  </si>
-  <si>
-    <t>dimension_name</t>
-  </si>
-  <si>
-    <t>dimension_type</t>
-  </si>
-  <si>
-    <t>value_source_type</t>
-  </si>
-  <si>
-    <t>value_source</t>
-  </si>
-  <si>
-    <t>enabled_flag</t>
-  </si>
-  <si>
-    <t>order_seq</t>
-  </si>
-  <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
-    <t>COMPANY</t>
-  </si>
-  <si>
-    <t>公司</t>
-  </si>
-  <si>
-    <t>BIZ</t>
-  </si>
-  <si>
-    <t>LOCAL</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>PURORG</t>
-  </si>
-  <si>
-    <t>采购组织</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>PURAGENT</t>
-  </si>
-  <si>
-    <t>采购员</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>LOV</t>
-  </si>
-  <si>
-    <t>值集</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>LOV_VIEW</t>
-  </si>
-  <si>
-    <t>值集视图</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>DATASOURCE</t>
-  </si>
-  <si>
-    <t>数据源</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>DATA_GROUP</t>
-  </si>
-  <si>
-    <t>数据组</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>CREATED_BY</t>
-  </si>
-  <si>
-    <t>创建人</t>
-  </si>
-  <si>
-    <t>USER</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HZERO.T.role/organization/default/template/member</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam_role-15</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理员模板</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Admin template</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/project/default/template/admin</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/project/default/template/admin</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HZERO.T.role/project/default/template/admin</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam_role-16</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目成员模板</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project member template</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/project/default/template/member</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/project/default/template/member</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HZERO.T.role/project/default/template/member</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="61">
+  <fonts count="59">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFF4B183"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2639,12 +2638,89 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFC55A11"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF4B183"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -2882,26 +2958,31 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3042,7 +3123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3094,18 +3175,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3118,20 +3194,63 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3147,10 +3266,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3519,11 +3634,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3532,21 +3647,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="67" t="s">
+      <c r="D3" s="71"/>
+      <c r="E3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="68"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3657,11 +3772,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -3699,19 +3814,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="65"/>
+      <c r="E25" s="71"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="65"/>
+      <c r="E26" s="71"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -3728,7 +3843,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -3782,13 +3897,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="43" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3956,10 +4071,10 @@
       <c r="C11" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="45" t="s">
         <v>92</v>
       </c>
       <c r="F11" t="s">
@@ -4098,459 +4213,648 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="4" width="8.88671875" style="55"/>
+    <col min="5" max="5" width="13.77734375" style="55" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="55" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="55" customWidth="1"/>
+    <col min="8" max="8" width="46.88671875" style="55" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="55" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="55" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="55"/>
+    <col min="12" max="12" width="15.88671875" style="55" customWidth="1"/>
+    <col min="13" max="13" width="21" style="55" customWidth="1"/>
+    <col min="14" max="14" width="21.109375" style="55" customWidth="1"/>
+    <col min="15" max="20" width="8.88671875" style="55"/>
+    <col min="21" max="21" width="14.88671875" style="55" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="55"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="61" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="64" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" t="s">
+      <c r="A7" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="K7" s="56" t="s">
+      <c r="K7" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="M7" s="57" t="s">
+      <c r="M7" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="N7" s="58" t="s">
+      <c r="N7" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="W7" s="59" t="s">
+      <c r="W7" s="56" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:23">
-      <c r="E8" t="s">
+      <c r="E8" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="K8" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" t="s">
-        <v>75</v>
-      </c>
-      <c r="M8" t="s">
-        <v>75</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="K8" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="O8" t="s">
-        <v>75</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="O8" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" t="s">
-        <v>75</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="Q8" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="T8" t="s">
-        <v>75</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="T8" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="U8" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" s="55" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="E9" t="s">
+      <c r="E9" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="H9" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="H9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J9" t="s">
-        <v>141</v>
-      </c>
-      <c r="K9" t="s">
-        <v>75</v>
-      </c>
-      <c r="L9" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" t="str">
+      <c r="J9" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="K9" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="55" t="str">
         <f>角色!$E$8</f>
         <v>iam_role-8</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="O9" t="s">
-        <v>75</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="O9" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="Q9" t="s">
-        <v>75</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="Q9" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="T9" t="s">
-        <v>75</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="T9" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="V9" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" s="55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="E10" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="W9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="E10" t="s">
+      <c r="F10" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="H10" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="H10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I10" t="s">
-        <v>153</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="J10" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="K10" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" t="str">
+      <c r="K10" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="55" t="str">
         <f>角色!$E$8</f>
         <v>iam_role-8</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="O10" t="s">
-        <v>75</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="O10" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="Q10" t="s">
-        <v>75</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="Q10" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="T10" t="s">
-        <v>75</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="T10" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="U10" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="V10" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="W10" s="55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="E11" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="V10" t="s">
+      <c r="G11" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="W10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="E11" t="s">
+      <c r="J11" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="F11" t="s">
+      <c r="K11" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="O11" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q11" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="S11" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="T11" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="U11" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="V11" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="G11" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="W11" s="55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="E12" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="J11" t="s">
+      <c r="F12" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="K11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11" t="s">
-        <v>75</v>
-      </c>
-      <c r="N11" t="s">
-        <v>159</v>
-      </c>
-      <c r="O11" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="G12" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="K12" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="O12" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="Q11" t="s">
-        <v>75</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="Q12" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S12" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="T11" t="s">
-        <v>75</v>
-      </c>
-      <c r="U11" t="s">
-        <v>158</v>
-      </c>
-      <c r="V11" t="s">
-        <v>160</v>
-      </c>
-      <c r="W11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="E12" t="s">
+      <c r="T12" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="U12" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="F12" t="s">
+      <c r="V12" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="W12" s="55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="E13" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="J13" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="G12" t="s">
-        <v>163</v>
-      </c>
-      <c r="H12" t="s">
-        <v>164</v>
-      </c>
-      <c r="J12" t="s">
-        <v>165</v>
-      </c>
-      <c r="K12" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" t="s">
-        <v>75</v>
-      </c>
-      <c r="N12" t="s">
-        <v>141</v>
-      </c>
-      <c r="O12" t="s">
-        <v>75</v>
-      </c>
-      <c r="P12" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>75</v>
-      </c>
-      <c r="R12" t="s">
-        <v>82</v>
-      </c>
-      <c r="S12" t="s">
-        <v>82</v>
-      </c>
-      <c r="T12" t="s">
-        <v>75</v>
-      </c>
-      <c r="U12" t="s">
-        <v>164</v>
-      </c>
-      <c r="V12" t="s">
-        <v>166</v>
-      </c>
-      <c r="W12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="E13" t="s">
-        <v>167</v>
-      </c>
-      <c r="F13" t="s">
-        <v>168</v>
-      </c>
-      <c r="G13" t="s">
-        <v>169</v>
-      </c>
-      <c r="H13" t="s">
-        <v>170</v>
-      </c>
-      <c r="J13" t="s">
-        <v>165</v>
-      </c>
-      <c r="K13" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" t="str">
+      <c r="K13" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="55" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="O13" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="O13" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="Q13" t="s">
-        <v>75</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="Q13" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="T13" t="s">
-        <v>75</v>
-      </c>
-      <c r="U13" t="s">
-        <v>171</v>
-      </c>
-      <c r="V13" t="s">
-        <v>172</v>
-      </c>
-      <c r="W13" t="s">
-        <v>75</v>
+      <c r="T13" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="U13" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="V13" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="W13" s="55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="E14" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="J14" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" s="55">
+        <v>0</v>
+      </c>
+      <c r="L14" s="55">
+        <v>0</v>
+      </c>
+      <c r="M14" s="55" t="str">
+        <f>角色!$E$8</f>
+        <v>iam_role-8</v>
+      </c>
+      <c r="N14" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14" s="55">
+        <v>0</v>
+      </c>
+      <c r="P14" s="55">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="55">
+        <v>0</v>
+      </c>
+      <c r="R14" s="55">
+        <v>1</v>
+      </c>
+      <c r="S14" s="55">
+        <v>1</v>
+      </c>
+      <c r="T14" s="55">
+        <v>0</v>
+      </c>
+      <c r="U14" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="V14" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="W14" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="E15" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="J15" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" s="55">
+        <v>0</v>
+      </c>
+      <c r="L15" s="55">
+        <v>0</v>
+      </c>
+      <c r="M15" s="55" t="str">
+        <f>角色!$E$8</f>
+        <v>iam_role-8</v>
+      </c>
+      <c r="N15" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" s="55">
+        <v>0</v>
+      </c>
+      <c r="P15" s="55">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="55">
+        <v>0</v>
+      </c>
+      <c r="R15" s="55">
+        <v>1</v>
+      </c>
+      <c r="S15" s="55">
+        <v>1</v>
+      </c>
+      <c r="T15" s="55">
+        <v>0</v>
+      </c>
+      <c r="U15" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="V15" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="W15" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="E16" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="J16" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" s="55">
+        <v>0</v>
+      </c>
+      <c r="L16" s="55">
+        <v>0</v>
+      </c>
+      <c r="M16" s="55" t="str">
+        <f>角色!$E$8</f>
+        <v>iam_role-8</v>
+      </c>
+      <c r="N16" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" s="55">
+        <v>0</v>
+      </c>
+      <c r="P16" s="55">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="55">
+        <v>0</v>
+      </c>
+      <c r="R16" s="55">
+        <v>1</v>
+      </c>
+      <c r="S16" s="55">
+        <v>1</v>
+      </c>
+      <c r="T16" s="55">
+        <v>0</v>
+      </c>
+      <c r="U16" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="V16" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="W16" s="57">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4564,27 +4868,27 @@
   <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="40" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4596,39 +4900,39 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="H7" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="E7" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="62" t="s">
+      <c r="I7" t="s">
         <v>175</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="J7" t="s">
         <v>176</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="K7" t="s">
         <v>177</v>
       </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>178</v>
-      </c>
-      <c r="J7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="E8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F8" t="str">
         <f>角色!$E$12</f>
@@ -4639,13 +4943,13 @@
         <v>iam_user-9</v>
       </c>
       <c r="H8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I8" t="s">
         <v>75</v>
       </c>
       <c r="J8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K8" t="s">
         <v>141</v>
@@ -4656,7 +4960,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="E9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F9" t="str">
         <f>角色!$E$8</f>
@@ -4667,7 +4971,7 @@
         <v>iam_user-9</v>
       </c>
       <c r="H9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I9" t="s">
         <v>75</v>
@@ -4683,7 +4987,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4693,102 +4997,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64753764-48CF-4FCF-9291-49AAE7F38136}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="51" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="54" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="G7" t="s">
         <v>186</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="H7" t="s">
         <v>187</v>
       </c>
-      <c r="F7" s="72" t="s">
+      <c r="I7" t="s">
         <v>188</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>189</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K7" t="s">
         <v>190</v>
       </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>191</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>192</v>
-      </c>
-      <c r="K7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L7" t="s">
-        <v>194</v>
-      </c>
-      <c r="M7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="E8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H8" t="s">
+        <v>195</v>
+      </c>
+      <c r="I8" t="s">
         <v>196</v>
       </c>
-      <c r="G8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H8" t="s">
-        <v>198</v>
-      </c>
-      <c r="I8" t="s">
-        <v>199</v>
-      </c>
       <c r="J8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K8" t="s">
         <v>82</v>
       </c>
       <c r="L8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M8" t="s">
         <v>75</v>
@@ -4796,28 +5100,28 @@
     </row>
     <row r="9" spans="1:13">
       <c r="E9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H9" t="s">
+        <v>195</v>
+      </c>
+      <c r="I9" t="s">
+        <v>196</v>
+      </c>
+      <c r="J9" t="s">
         <v>198</v>
-      </c>
-      <c r="I9" t="s">
-        <v>199</v>
-      </c>
-      <c r="J9" t="s">
-        <v>201</v>
       </c>
       <c r="K9" t="s">
         <v>82</v>
       </c>
       <c r="L9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M9" t="s">
         <v>75</v>
@@ -4825,28 +5129,28 @@
     </row>
     <row r="10" spans="1:13">
       <c r="E10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K10" t="s">
         <v>82</v>
       </c>
       <c r="L10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M10" t="s">
         <v>75</v>
@@ -4854,28 +5158,28 @@
     </row>
     <row r="11" spans="1:13">
       <c r="E11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K11" t="s">
         <v>82</v>
       </c>
       <c r="L11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M11" t="s">
         <v>75</v>
@@ -4883,28 +5187,28 @@
     </row>
     <row r="12" spans="1:13">
       <c r="E12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K12" t="s">
         <v>82</v>
       </c>
       <c r="L12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M12" t="s">
         <v>75</v>
@@ -4912,28 +5216,28 @@
     </row>
     <row r="13" spans="1:13">
       <c r="E13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G13" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K13" t="s">
         <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M13" t="s">
         <v>75</v>
@@ -4941,28 +5245,28 @@
     </row>
     <row r="14" spans="1:13">
       <c r="E14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K14" t="s">
         <v>82</v>
       </c>
       <c r="L14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M14" t="s">
         <v>75</v>
@@ -4970,29 +5274,30 @@
     </row>
     <row r="15" spans="1:13">
       <c r="E15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K15" t="s">
         <v>82</v>
       </c>
       <c r="L15" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M15" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="57" type="noConversion"/>
+  <phoneticPr fontId="55" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-iam-user-role.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-iam-user-role.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25071\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hzero\hzero-platform\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C741DD9-3564-4258-BF22-D62FB1AE1723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3008C863-0816-48E6-8160-5B4D59AC1664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="198">
   <si>
     <r>
       <rPr>
@@ -2289,51 +2289,6 @@
     <t>HZERO.T.role/organization/default/administrator</t>
   </si>
   <si>
-    <t>iam_role-9</t>
-  </si>
-  <si>
-    <t>游客(租户层)</t>
-  </si>
-  <si>
-    <t>role/organization/default/guest</t>
-  </si>
-  <si>
-    <t>role/organization/default/administrator|HZERO.T.role/organization/default/guest</t>
-  </si>
-  <si>
-    <t>HZERO.T.role/organization/default/guest</t>
-  </si>
-  <si>
-    <t>iam_role-10</t>
-  </si>
-  <si>
-    <t>租户管理员模板</t>
-  </si>
-  <si>
-    <t>role/organization/default/template/administrator</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>role/organization/default/administrator|HZERO.T.role/organization/default/template/administrator</t>
-  </si>
-  <si>
-    <t>iam_role-11</t>
-  </si>
-  <si>
-    <t>组织管理员</t>
-  </si>
-  <si>
-    <t>role/project/default/administrator</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>HZERO.P..role/project/default/administrator</t>
-  </si>
-  <si>
     <t>iam_role-12</t>
   </si>
   <si>
@@ -2352,24 +2307,6 @@
     <t>HZERO.T.role/site/default/administrator</t>
   </si>
   <si>
-    <t>iam_role-13</t>
-  </si>
-  <si>
-    <t>游客(平台层)</t>
-  </si>
-  <si>
-    <t>Site Guest</t>
-  </si>
-  <si>
-    <t>role/site/default/guest</t>
-  </si>
-  <si>
-    <t>role/site/default/administrator|HZERO.T.role/site/default/guest</t>
-  </si>
-  <si>
-    <t>HZERO.T.role/site/default/guest</t>
-  </si>
-  <si>
     <t>用户角色关系</t>
   </si>
   <si>
@@ -2515,106 +2452,6 @@
   </si>
   <si>
     <t>USER</t>
-  </si>
-  <si>
-    <t>iam_role-14</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Organization Guest</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>租户成员模板</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tenant admin template</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Organization Member template</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/organization/default/template/member</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>role/organization/default/administrator|HZERO.T.role/organization/default/template/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>member</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>HZERO.T.role/organization/default/template/administrator</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>HZERO.T.role/organization/default/template/member</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>iam_role-15</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目管理员模板</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Admin template</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/project/default/template/admin</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/organization/default/administrator|HZERO.T.role/project/default/template/admin</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>HZERO.T.role/project/default/template/admin</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>iam_role-16</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目成员模板</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project member template</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/project/default/template/member</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/organization/default/administrator|HZERO.T.role/project/default/template/member</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>HZERO.T.role/project/default/template/member</t>
-    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3123,7 +2960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3207,9 +3044,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3634,11 +3468,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3647,21 +3481,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="73" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="74"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3772,11 +3606,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -3814,19 +3648,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="71"/>
+      <c r="E25" s="70"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="71" t="s">
+      <c r="D26" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="71"/>
+      <c r="E26" s="70"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -3859,6 +3693,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
+    <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4220,10 +4055,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -4245,27 +4080,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="60" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="63" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4279,10 +4114,10 @@
       <c r="C7" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="65" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="55" t="s">
@@ -4291,7 +4126,7 @@
       <c r="G7" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="66" t="s">
         <v>122</v>
       </c>
       <c r="I7" s="55" t="s">
@@ -4300,16 +4135,16 @@
       <c r="J7" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="K7" s="68" t="s">
+      <c r="K7" s="67" t="s">
         <v>125</v>
       </c>
       <c r="L7" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="M7" s="69" t="s">
+      <c r="M7" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="N7" s="70" t="s">
+      <c r="N7" s="69" t="s">
         <v>128</v>
       </c>
       <c r="O7" s="55" t="s">
@@ -4403,14 +4238,14 @@
       <c r="F9" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="57" t="s">
-        <v>220</v>
+      <c r="G9" s="55" t="s">
+        <v>145</v>
       </c>
       <c r="H9" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="J9" s="57" t="s">
-        <v>221</v>
+        <v>146</v>
+      </c>
+      <c r="J9" s="55" t="s">
+        <v>147</v>
       </c>
       <c r="K9" s="55" t="s">
         <v>75</v>
@@ -4418,9 +4253,8 @@
       <c r="L9" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="M9" s="55" t="str">
-        <f>角色!$E$8</f>
-        <v>iam_role-8</v>
+      <c r="M9" s="55" t="s">
+        <v>75</v>
       </c>
       <c r="N9" s="55" t="s">
         <v>141</v>
@@ -4447,410 +4281,10 @@
         <v>146</v>
       </c>
       <c r="V9" s="55" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="W9" s="55" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="E10" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="G10" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="H10" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="I10" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="J10" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="K10" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="55" t="str">
-        <f>角色!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="N10" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="O10" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="P10" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q10" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="R10" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="S10" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="T10" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="U10" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="V10" s="57" t="s">
-        <v>227</v>
-      </c>
-      <c r="W10" s="55" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="E11" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F11" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="J11" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="K11" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="N11" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="O11" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q11" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="R11" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="S11" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="T11" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="U11" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="V11" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="W11" s="55" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="E12" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="J12" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="K12" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="N12" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="O12" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="P12" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q12" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="R12" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="S12" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="T12" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="U12" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="V12" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="W12" s="55" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="E13" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="F13" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="H13" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="J13" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="K13" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="55" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="N13" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="O13" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q13" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="R13" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="S13" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="T13" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="U13" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="V13" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="W13" s="55" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="E14" s="57" t="s">
-        <v>219</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>222</v>
-      </c>
-      <c r="G14" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="H14" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="J14" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="K14" s="55">
-        <v>0</v>
-      </c>
-      <c r="L14" s="55">
-        <v>0</v>
-      </c>
-      <c r="M14" s="55" t="str">
-        <f>角色!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="N14" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="O14" s="55">
-        <v>0</v>
-      </c>
-      <c r="P14" s="55">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="55">
-        <v>0</v>
-      </c>
-      <c r="R14" s="55">
-        <v>1</v>
-      </c>
-      <c r="S14" s="55">
-        <v>1</v>
-      </c>
-      <c r="T14" s="55">
-        <v>0</v>
-      </c>
-      <c r="U14" s="57" t="s">
-        <v>226</v>
-      </c>
-      <c r="V14" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="W14" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="E15" s="57" t="s">
-        <v>229</v>
-      </c>
-      <c r="F15" s="57" t="s">
-        <v>230</v>
-      </c>
-      <c r="G15" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="H15" s="57" t="s">
-        <v>232</v>
-      </c>
-      <c r="J15" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="K15" s="55">
-        <v>0</v>
-      </c>
-      <c r="L15" s="55">
-        <v>0</v>
-      </c>
-      <c r="M15" s="55" t="str">
-        <f>角色!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="N15" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="O15" s="55">
-        <v>0</v>
-      </c>
-      <c r="P15" s="55">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="55">
-        <v>0</v>
-      </c>
-      <c r="R15" s="55">
-        <v>1</v>
-      </c>
-      <c r="S15" s="55">
-        <v>1</v>
-      </c>
-      <c r="T15" s="55">
-        <v>0</v>
-      </c>
-      <c r="U15" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="V15" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="W15" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="E16" s="57" t="s">
-        <v>235</v>
-      </c>
-      <c r="F16" s="57" t="s">
-        <v>236</v>
-      </c>
-      <c r="G16" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="H16" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="J16" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="K16" s="55">
-        <v>0</v>
-      </c>
-      <c r="L16" s="55">
-        <v>0</v>
-      </c>
-      <c r="M16" s="55" t="str">
-        <f>角色!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="N16" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="O16" s="55">
-        <v>0</v>
-      </c>
-      <c r="P16" s="55">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="55">
-        <v>0</v>
-      </c>
-      <c r="R16" s="55">
-        <v>1</v>
-      </c>
-      <c r="S16" s="55">
-        <v>1</v>
-      </c>
-      <c r="T16" s="55">
-        <v>0</v>
-      </c>
-      <c r="U16" s="57" t="s">
-        <v>239</v>
-      </c>
-      <c r="V16" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="W16" s="57">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4863,9 +4297,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="34" t="s">
@@ -4900,42 +4337,42 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E7" s="47" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="I7" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="J7" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="K7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="L7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="E8" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F8" t="str">
-        <f>角色!$E$12</f>
+        <f>角色!$E$9</f>
         <v>iam_role-12</v>
       </c>
       <c r="G8" t="str">
@@ -4943,13 +4380,13 @@
         <v>iam_user-9</v>
       </c>
       <c r="H8" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="I8" t="s">
         <v>75</v>
       </c>
       <c r="J8" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K8" t="s">
         <v>141</v>
@@ -4960,7 +4397,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="E9" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F9" t="str">
         <f>角色!$E$8</f>
@@ -4971,7 +4408,7 @@
         <v>iam_user-9</v>
       </c>
       <c r="H9" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="I9" t="s">
         <v>75</v>
@@ -5030,69 +4467,69 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="G7" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="I7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="J7" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="K7" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="L7" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="M7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="E8" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="G8" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="H8" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="I8" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="J8" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="K8" t="s">
         <v>82</v>
       </c>
       <c r="L8" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="M8" t="s">
         <v>75</v>
@@ -5100,28 +4537,28 @@
     </row>
     <row r="9" spans="1:13">
       <c r="E9" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="G9" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="H9" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="I9" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="J9" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="K9" t="s">
         <v>82</v>
       </c>
       <c r="L9" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="M9" t="s">
         <v>75</v>
@@ -5129,28 +4566,28 @@
     </row>
     <row r="10" spans="1:13">
       <c r="E10" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="G10" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="H10" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="I10" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="J10" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="K10" t="s">
         <v>82</v>
       </c>
       <c r="L10" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="M10" t="s">
         <v>75</v>
@@ -5158,28 +4595,28 @@
     </row>
     <row r="11" spans="1:13">
       <c r="E11" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="G11" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="H11" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="I11" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="J11" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="K11" t="s">
         <v>82</v>
       </c>
       <c r="L11" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="M11" t="s">
         <v>75</v>
@@ -5187,28 +4624,28 @@
     </row>
     <row r="12" spans="1:13">
       <c r="E12" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F12" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="G12" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="H12" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="I12" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="J12" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="K12" t="s">
         <v>82</v>
       </c>
       <c r="L12" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="M12" t="s">
         <v>75</v>
@@ -5216,28 +4653,28 @@
     </row>
     <row r="13" spans="1:13">
       <c r="E13" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="G13" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="H13" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="I13" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="J13" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="K13" t="s">
         <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="M13" t="s">
         <v>75</v>
@@ -5245,28 +4682,28 @@
     </row>
     <row r="14" spans="1:13">
       <c r="E14" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F14" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="G14" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="H14" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="I14" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="J14" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="K14" t="s">
         <v>82</v>
       </c>
       <c r="L14" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="M14" t="s">
         <v>75</v>
@@ -5274,22 +4711,22 @@
     </row>
     <row r="15" spans="1:13">
       <c r="E15" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F15" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="G15" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="H15" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="K15" t="s">
         <v>82</v>
       </c>
       <c r="L15" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s">
         <v>75</v>
